--- a/results_tracking.xlsx
+++ b/results_tracking.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A0277-E8EE-442E-8123-656B143EDA28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9CE1E-188D-49D6-BDBD-EB8A63EA6074}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="test_amended" sheetId="3" r:id="rId2"/>
-    <sheet name="failed attempts" sheetId="2" r:id="rId3"/>
+    <sheet name="pruning weights" sheetId="4" r:id="rId3"/>
+    <sheet name="failed attempts" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
   <si>
     <t>Feature Layer</t>
   </si>
@@ -247,12 +248,18 @@
   </si>
   <si>
     <t>1,2,3,2,1,1,1</t>
+  </si>
+  <si>
+    <t>prune factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,12 +289,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9ADC87-09C2-45D2-8C69-2D271D7A6737}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,6 +1644,452 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C68D66-1B6B-401A-9673-9CF93B415C6B}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.501</v>
+      </c>
+      <c r="E2" s="3">
+        <v>18.93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="J2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.499</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18.75</v>
+      </c>
+      <c r="G3">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="H3">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="J3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.502</v>
+      </c>
+      <c r="E4" s="3">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.47</v>
+      </c>
+      <c r="J4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.497</v>
+      </c>
+      <c r="E5" s="3">
+        <v>19.28</v>
+      </c>
+      <c r="G5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.501</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.501</v>
+      </c>
+      <c r="E7" s="3">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="J7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19.36</v>
+      </c>
+      <c r="G8">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.498</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18.96</v>
+      </c>
+      <c r="G9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.501</v>
+      </c>
+      <c r="E10" s="3">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.67</v>
+      </c>
+      <c r="H10">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.501</v>
+      </c>
+      <c r="E11" s="3">
+        <v>18.75</v>
+      </c>
+      <c r="G11">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.496</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14.03</v>
+      </c>
+      <c r="G12">
+        <v>0.65</v>
+      </c>
+      <c r="H12">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G13">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="I13">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="J13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="G14">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D098E029-2AED-4649-B07F-3349311B3B46}">
   <dimension ref="A1:J12"/>
   <sheetViews>

--- a/results_tracking.xlsx
+++ b/results_tracking.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9CE1E-188D-49D6-BDBD-EB8A63EA6074}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD64F161-FC4F-4C43-9C9E-7A43A5F4F83D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="test_amended" sheetId="3" r:id="rId2"/>
-    <sheet name="pruning weights" sheetId="4" r:id="rId3"/>
-    <sheet name="failed attempts" sheetId="2" r:id="rId4"/>
+    <sheet name="Cutting layers from model" sheetId="3" r:id="rId2"/>
+    <sheet name="pruning weights" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="pruning conv weights by channel" sheetId="5" r:id="rId4"/>
+    <sheet name="failed attempts" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="79">
   <si>
     <t>Feature Layer</t>
   </si>
@@ -251,6 +252,22 @@
   </si>
   <si>
     <t>prune factor</t>
+  </si>
+  <si>
+    <t>number of parameters</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>This is the list of test results  for models based on Mobilenetv2 SSD object detection model. The models either had layers removed in the Mobilenetv2 base, or  in the extra layers</t>
+  </si>
+  <si>
+    <t>This is the results of pruning the Mobilenetv2 SSD object detection model. The method of pruning involves removing channels from each Conv2d layer, depending on the weights of each channel.
+The pruning is done with the following restrictions:
+- Each Conv2d layer must at least have 1 channel
+- Conv2d layers with groups &gt; 1 are not pruned
+After pruning, an addition zero_padding layer is added to pad the output with zeros to give the output tensor a size similar to that of the Conv2d before pruning</t>
   </si>
 </sst>
 </file>
@@ -258,7 +275,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -289,14 +306,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9ADC87-09C2-45D2-8C69-2D271D7A6737}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,6 +1662,14 @@
         <v>2.7E-2</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1647,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C68D66-1B6B-401A-9673-9CF93B415C6B}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,6 +2122,425 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6088858D-B646-4070-81DE-758F65C40524}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3333120</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>0.67</v>
+      </c>
+      <c r="I2">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="K2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3238764</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.502</v>
+      </c>
+      <c r="F3" s="3">
+        <v>16.39</v>
+      </c>
+      <c r="H3">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="K3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2945836</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.505</v>
+      </c>
+      <c r="F4" s="3">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.47</v>
+      </c>
+      <c r="K4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2410124</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.501</v>
+      </c>
+      <c r="F5" s="3">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.46</v>
+      </c>
+      <c r="K5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1596297</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.502</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16.32</v>
+      </c>
+      <c r="H6">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="K6">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1569638</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16.04</v>
+      </c>
+      <c r="H7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J7">
+        <v>0.46</v>
+      </c>
+      <c r="K7">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1536326</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.497</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14.48</v>
+      </c>
+      <c r="H8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1453190</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.67</v>
+      </c>
+      <c r="H9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="K9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1396832</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7.15</v>
+      </c>
+      <c r="H10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I10">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1234942</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.45</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2E-3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:P15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D098E029-2AED-4649-B07F-3349311B3B46}">
   <dimension ref="A1:J12"/>
   <sheetViews>

--- a/results_tracking.xlsx
+++ b/results_tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD64F161-FC4F-4C43-9C9E-7A43A5F4F83D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023A0D5-5A0B-402F-8EF5-ACED7ED7C6D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2123,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6088858D-B646-4070-81DE-758F65C40524}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2143,7 @@
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2501,16 +2501,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>76</v>
       </c>
@@ -2529,11 +2529,10 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="C15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
